--- a/Feature_Engineering_Option_Comparison.xlsx
+++ b/Feature_Engineering_Option_Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Feature Engineering</t>
   </si>
@@ -202,8 +202,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -240,24 +256,24 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -274,6 +290,14 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -290,6 +314,14 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -645,11 +677,11 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" t="s">
         <v>23</v>
       </c>
@@ -658,22 +690,22 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
@@ -681,31 +713,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1000</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.79427000000000003</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.79874999999999996</v>
       </c>
-      <c r="H4" s="6">
-        <v>0.79939000000000004</v>
-      </c>
-      <c r="I4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="K4">
         <v>1</v>
       </c>
@@ -717,46 +749,46 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>800</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="17">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>500</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.79435999999999996</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.79879999999999995</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="H6" s="5">
+        <v>0.79939000000000004</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="K6">
         <v>2</v>
       </c>
@@ -767,109 +799,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="10">
+    <row r="7" spans="1:13" ht="17">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="E8" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:13">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="11" t="s">
+    <row r="11" spans="1:13">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:13" ht="17">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="4">
         <v>1000</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="17">
-      <c r="A13" s="2"/>
-      <c r="B13" s="10">
+      <c r="F13" s="5">
+        <v>0.79447000000000001</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="17">
+      <c r="A14" s="11"/>
+      <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="4">
         <v>800</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="17">
-      <c r="A14" s="2"/>
-      <c r="B14" s="10">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="17">
+      <c r="A15" s="11"/>
+      <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="4">
         <v>500</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="B15" s="10">
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="17">
+      <c r="A16" s="11"/>
+      <c r="B16" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4">
+        <v>300</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
